--- a/public/Excel/MASTER_DATA.xlsx
+++ b/public/Excel/MASTER_DATA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA\WORKS\HWI\JPAYROLL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\hrd\public\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="184">
   <si>
     <t>religion</t>
   </si>
@@ -570,153 +570,6 @@
   </si>
   <si>
     <t>S2</t>
-  </si>
-  <si>
-    <t>04/01/2016</t>
-  </si>
-  <si>
-    <t>01/07/2016</t>
-  </si>
-  <si>
-    <t>02/09/2016</t>
-  </si>
-  <si>
-    <t>01/01/1981</t>
-  </si>
-  <si>
-    <t>01/01/1982</t>
-  </si>
-  <si>
-    <t>01/01/1983</t>
-  </si>
-  <si>
-    <t>01/01/1984</t>
-  </si>
-  <si>
-    <t>01/01/1985</t>
-  </si>
-  <si>
-    <t>01/01/1986</t>
-  </si>
-  <si>
-    <t>01/01/1987</t>
-  </si>
-  <si>
-    <t>01/01/1988</t>
-  </si>
-  <si>
-    <t>01/01/1989</t>
-  </si>
-  <si>
-    <t>01/01/1990</t>
-  </si>
-  <si>
-    <t>01/01/1991</t>
-  </si>
-  <si>
-    <t>01/01/1992</t>
-  </si>
-  <si>
-    <t>01/01/1993</t>
-  </si>
-  <si>
-    <t>01/01/1994</t>
-  </si>
-  <si>
-    <t>01/01/1995</t>
-  </si>
-  <si>
-    <t>01/01/1996</t>
-  </si>
-  <si>
-    <t>01/01/1997</t>
-  </si>
-  <si>
-    <t>01/01/1998</t>
-  </si>
-  <si>
-    <t>01/01/1999</t>
-  </si>
-  <si>
-    <t>01/01/2000</t>
-  </si>
-  <si>
-    <t>01/01/2001</t>
-  </si>
-  <si>
-    <t>01/01/2002</t>
-  </si>
-  <si>
-    <t>01/01/2003</t>
-  </si>
-  <si>
-    <t>02/02/1999</t>
-  </si>
-  <si>
-    <t>02/02/2000</t>
-  </si>
-  <si>
-    <t>02/02/2001</t>
-  </si>
-  <si>
-    <t>02/02/2002</t>
-  </si>
-  <si>
-    <t>02/02/2003</t>
-  </si>
-  <si>
-    <t>02/02/2004</t>
-  </si>
-  <si>
-    <t>02/02/2005</t>
-  </si>
-  <si>
-    <t>02/02/2006</t>
-  </si>
-  <si>
-    <t>02/02/2007</t>
-  </si>
-  <si>
-    <t>02/02/2008</t>
-  </si>
-  <si>
-    <t>02/02/2009</t>
-  </si>
-  <si>
-    <t>02/02/2010</t>
-  </si>
-  <si>
-    <t>02/02/2011</t>
-  </si>
-  <si>
-    <t>02/02/2012</t>
-  </si>
-  <si>
-    <t>02/02/2013</t>
-  </si>
-  <si>
-    <t>02/02/2014</t>
-  </si>
-  <si>
-    <t>02/02/2015</t>
-  </si>
-  <si>
-    <t>02/02/2016</t>
-  </si>
-  <si>
-    <t>02/02/2017</t>
-  </si>
-  <si>
-    <t>02/02/2018</t>
-  </si>
-  <si>
-    <t>02/02/2019</t>
-  </si>
-  <si>
-    <t>02/02/2020</t>
-  </si>
-  <si>
-    <t>02/02/2021</t>
   </si>
   <si>
     <t>department</t>
@@ -728,7 +581,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
@@ -815,7 +668,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -873,9 +726,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -892,6 +742,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1177,21 +1039,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A24"/>
+    <sheetView tabSelected="1" topLeftCell="AC2" workbookViewId="0">
+      <selection activeCell="AL2" sqref="AL2:AL24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="23" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1290,13 +1154,13 @@
         <v>161</v>
       </c>
       <c r="AF1" s="13" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="AG1" s="13" t="s">
         <v>162</v>
       </c>
       <c r="AH1" s="13" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="AI1" s="13" t="s">
         <v>165</v>
@@ -1345,8 +1209,8 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="21" t="s">
-        <v>185</v>
+      <c r="E2" s="28">
+        <v>30036</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -1357,7 +1221,7 @@
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="4" t="s">
@@ -1408,17 +1272,17 @@
       <c r="Y2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z2" s="21" t="s">
-        <v>182</v>
+      <c r="Z2" s="27">
+        <v>42461</v>
       </c>
       <c r="AA2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB2" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC2" s="21" t="s">
-        <v>208</v>
+      <c r="AB2" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC2" s="27">
+        <v>36193</v>
       </c>
       <c r="AD2" s="12" t="s">
         <v>5</v>
@@ -1444,8 +1308,8 @@
       <c r="AK2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AL2" s="21" t="s">
-        <v>184</v>
+      <c r="AL2" s="27">
+        <v>42409</v>
       </c>
       <c r="AM2" s="2">
         <v>1000</v>
@@ -1482,8 +1346,8 @@
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="21" t="s">
-        <v>186</v>
+      <c r="E3" s="29">
+        <v>33826</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>24</v>
@@ -1494,7 +1358,7 @@
       <c r="H3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -1545,17 +1409,17 @@
       <c r="Y3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Z3" s="21" t="s">
-        <v>182</v>
+      <c r="Z3" s="27">
+        <v>42461</v>
       </c>
       <c r="AA3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC3" s="21" t="s">
-        <v>209</v>
+      <c r="AB3" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC3" s="27">
+        <v>36193</v>
       </c>
       <c r="AD3" s="12" t="s">
         <v>5</v>
@@ -1581,8 +1445,8 @@
       <c r="AK3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AL3" s="21" t="s">
-        <v>184</v>
+      <c r="AL3" s="27">
+        <v>42409</v>
       </c>
       <c r="AM3" s="2">
         <v>1000</v>
@@ -1619,8 +1483,8 @@
       <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>187</v>
+      <c r="E4" s="29">
+        <v>31302</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>24</v>
@@ -1631,7 +1495,7 @@
       <c r="H4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="25" t="s">
+      <c r="I4" s="24" t="s">
         <v>40</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -1682,17 +1546,17 @@
       <c r="Y4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" s="21" t="s">
-        <v>182</v>
+      <c r="Z4" s="27">
+        <v>42461</v>
       </c>
       <c r="AA4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB4" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC4" s="21" t="s">
-        <v>210</v>
+      <c r="AB4" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC4" s="27">
+        <v>36193</v>
       </c>
       <c r="AD4" s="12" t="s">
         <v>5</v>
@@ -1718,8 +1582,8 @@
       <c r="AK4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AL4" s="21" t="s">
-        <v>184</v>
+      <c r="AL4" s="27">
+        <v>42409</v>
       </c>
       <c r="AM4" s="2">
         <v>1000</v>
@@ -1756,8 +1620,8 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>188</v>
+      <c r="E5" s="29">
+        <v>32519</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>2</v>
@@ -1768,7 +1632,7 @@
       <c r="H5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="25" t="s">
+      <c r="I5" s="24" t="s">
         <v>50</v>
       </c>
       <c r="J5" s="4" t="s">
@@ -1819,17 +1683,17 @@
       <c r="Y5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Z5" s="21" t="s">
-        <v>182</v>
+      <c r="Z5" s="27">
+        <v>42461</v>
       </c>
       <c r="AA5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB5" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC5" s="21" t="s">
-        <v>211</v>
+      <c r="AB5" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC5" s="27">
+        <v>36193</v>
       </c>
       <c r="AD5" s="12" t="s">
         <v>5</v>
@@ -1855,8 +1719,8 @@
       <c r="AK5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AL5" s="21" t="s">
-        <v>184</v>
+      <c r="AL5" s="27">
+        <v>42409</v>
       </c>
       <c r="AM5" s="2">
         <v>1000</v>
@@ -1893,8 +1757,8 @@
       <c r="D6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>189</v>
+      <c r="E6" s="29">
+        <v>31162</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>2</v>
@@ -1905,7 +1769,7 @@
       <c r="H6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="24" t="s">
         <v>62</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -1956,17 +1820,17 @@
       <c r="Y6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Z6" s="21" t="s">
-        <v>182</v>
+      <c r="Z6" s="27">
+        <v>42461</v>
       </c>
       <c r="AA6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB6" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC6" s="21" t="s">
-        <v>212</v>
+      <c r="AB6" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC6" s="27">
+        <v>36193</v>
       </c>
       <c r="AD6" s="12" t="s">
         <v>5</v>
@@ -1992,8 +1856,8 @@
       <c r="AK6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AL6" s="21" t="s">
-        <v>184</v>
+      <c r="AL6" s="27">
+        <v>42409</v>
       </c>
       <c r="AM6" s="2">
         <v>1000</v>
@@ -2030,8 +1894,8 @@
       <c r="D7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>190</v>
+      <c r="E7" s="29">
+        <v>26847</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>2</v>
@@ -2042,7 +1906,7 @@
       <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="24" t="s">
         <v>75</v>
       </c>
       <c r="J7" s="4" t="s">
@@ -2093,17 +1957,17 @@
       <c r="Y7" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Z7" s="21" t="s">
-        <v>182</v>
+      <c r="Z7" s="27">
+        <v>42461</v>
       </c>
       <c r="AA7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC7" s="21" t="s">
-        <v>213</v>
+      <c r="AB7" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC7" s="27">
+        <v>36193</v>
       </c>
       <c r="AD7" s="12" t="s">
         <v>5</v>
@@ -2129,8 +1993,8 @@
       <c r="AK7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AL7" s="21" t="s">
-        <v>184</v>
+      <c r="AL7" s="27">
+        <v>42409</v>
       </c>
       <c r="AM7" s="2">
         <v>1000</v>
@@ -2167,8 +2031,8 @@
       <c r="D8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>191</v>
+      <c r="E8" s="29">
+        <v>34242</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>2</v>
@@ -2179,7 +2043,7 @@
       <c r="H8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="24" t="s">
         <v>90</v>
       </c>
       <c r="J8" s="4" t="s">
@@ -2230,17 +2094,17 @@
       <c r="Y8" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Z8" s="21" t="s">
-        <v>182</v>
+      <c r="Z8" s="27">
+        <v>42461</v>
       </c>
       <c r="AA8" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AB8" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC8" s="21" t="s">
-        <v>214</v>
+      <c r="AB8" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC8" s="27">
+        <v>36193</v>
       </c>
       <c r="AD8" s="12" t="s">
         <v>5</v>
@@ -2266,8 +2130,8 @@
       <c r="AK8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AL8" s="21" t="s">
-        <v>184</v>
+      <c r="AL8" s="27">
+        <v>42409</v>
       </c>
       <c r="AM8" s="2">
         <v>1000</v>
@@ -2304,8 +2168,8 @@
       <c r="D9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>192</v>
+      <c r="E9" s="28">
+        <v>26006</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
@@ -2316,7 +2180,7 @@
       <c r="H9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="25" t="s">
         <v>101</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -2367,17 +2231,17 @@
       <c r="Y9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="Z9" s="21" t="s">
-        <v>182</v>
+      <c r="Z9" s="27">
+        <v>42461</v>
       </c>
       <c r="AA9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AB9" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC9" s="21" t="s">
-        <v>215</v>
+      <c r="AB9" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC9" s="27">
+        <v>36193</v>
       </c>
       <c r="AD9" s="12" t="s">
         <v>5</v>
@@ -2403,8 +2267,8 @@
       <c r="AK9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AL9" s="21" t="s">
-        <v>184</v>
+      <c r="AL9" s="27">
+        <v>42409</v>
       </c>
       <c r="AM9" s="2">
         <v>1000</v>
@@ -2441,8 +2305,8 @@
       <c r="D10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>193</v>
+      <c r="E10" s="28">
+        <v>34343</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>2</v>
@@ -2453,7 +2317,7 @@
       <c r="H10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="24" t="s">
+      <c r="I10" s="23" t="s">
         <v>115</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -2504,17 +2368,17 @@
       <c r="Y10" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Z10" s="21" t="s">
-        <v>182</v>
+      <c r="Z10" s="27">
+        <v>42461</v>
       </c>
       <c r="AA10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AB10" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC10" s="21" t="s">
-        <v>216</v>
+      <c r="AB10" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC10" s="27">
+        <v>36193</v>
       </c>
       <c r="AD10" s="12" t="s">
         <v>5</v>
@@ -2540,8 +2404,8 @@
       <c r="AK10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AL10" s="21" t="s">
-        <v>184</v>
+      <c r="AL10" s="27">
+        <v>42409</v>
       </c>
       <c r="AM10" s="2">
         <v>1000</v>
@@ -2566,7 +2430,7 @@
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>2203052371</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -2578,8 +2442,8 @@
       <c r="D11" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>194</v>
+      <c r="E11" s="30">
+        <v>36697</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>24</v>
@@ -2590,7 +2454,7 @@
       <c r="H11" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>122</v>
       </c>
       <c r="J11" s="10" t="s">
@@ -2641,17 +2505,17 @@
       <c r="Y11" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="Z11" s="21" t="s">
-        <v>182</v>
+      <c r="Z11" s="27">
+        <v>42461</v>
       </c>
       <c r="AA11" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AB11" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC11" s="21" t="s">
-        <v>217</v>
+      <c r="AB11" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC11" s="27">
+        <v>36193</v>
       </c>
       <c r="AD11" s="12" t="s">
         <v>5</v>
@@ -2677,8 +2541,8 @@
       <c r="AK11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AL11" s="21" t="s">
-        <v>184</v>
+      <c r="AL11" s="27">
+        <v>42409</v>
       </c>
       <c r="AM11" s="2">
         <v>1000</v>
@@ -2716,8 +2580,8 @@
       <c r="D12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>195</v>
+      <c r="E12" s="28">
+        <v>30036</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>2</v>
@@ -2728,7 +2592,7 @@
       <c r="H12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="23" t="s">
         <v>6</v>
       </c>
       <c r="J12" s="4" t="s">
@@ -2779,17 +2643,17 @@
       <c r="Y12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z12" s="21" t="s">
-        <v>182</v>
+      <c r="Z12" s="27">
+        <v>42461</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB12" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC12" s="21" t="s">
-        <v>218</v>
+      <c r="AB12" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC12" s="27">
+        <v>36193</v>
       </c>
       <c r="AD12" s="12" t="s">
         <v>5</v>
@@ -2815,8 +2679,8 @@
       <c r="AK12" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AL12" s="21" t="s">
-        <v>184</v>
+      <c r="AL12" s="27">
+        <v>42409</v>
       </c>
       <c r="AM12" s="2">
         <v>1000</v>
@@ -2854,8 +2718,8 @@
       <c r="D13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>196</v>
+      <c r="E13" s="29">
+        <v>33826</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>24</v>
@@ -2866,7 +2730,7 @@
       <c r="H13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="24" t="s">
         <v>25</v>
       </c>
       <c r="J13" s="2" t="s">
@@ -2917,17 +2781,17 @@
       <c r="Y13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Z13" s="21" t="s">
-        <v>182</v>
+      <c r="Z13" s="27">
+        <v>42461</v>
       </c>
       <c r="AA13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB13" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC13" s="21" t="s">
-        <v>219</v>
+      <c r="AB13" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC13" s="27">
+        <v>36193</v>
       </c>
       <c r="AD13" s="12" t="s">
         <v>5</v>
@@ -2953,8 +2817,8 @@
       <c r="AK13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AL13" s="21" t="s">
-        <v>184</v>
+      <c r="AL13" s="27">
+        <v>42409</v>
       </c>
       <c r="AM13" s="2">
         <v>1000</v>
@@ -2992,8 +2856,8 @@
       <c r="D14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="21" t="s">
-        <v>197</v>
+      <c r="E14" s="29">
+        <v>31302</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>24</v>
@@ -3004,7 +2868,7 @@
       <c r="H14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="24" t="s">
         <v>40</v>
       </c>
       <c r="J14" s="4" t="s">
@@ -3055,17 +2919,17 @@
       <c r="Y14" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="Z14" s="21" t="s">
-        <v>182</v>
+      <c r="Z14" s="27">
+        <v>42461</v>
       </c>
       <c r="AA14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB14" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC14" s="21" t="s">
-        <v>220</v>
+      <c r="AB14" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC14" s="27">
+        <v>36193</v>
       </c>
       <c r="AD14" s="12" t="s">
         <v>5</v>
@@ -3091,8 +2955,8 @@
       <c r="AK14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AL14" s="21" t="s">
-        <v>184</v>
+      <c r="AL14" s="27">
+        <v>42409</v>
       </c>
       <c r="AM14" s="2">
         <v>1000</v>
@@ -3130,8 +2994,8 @@
       <c r="D15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>198</v>
+      <c r="E15" s="29">
+        <v>32519</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>2</v>
@@ -3142,7 +3006,7 @@
       <c r="H15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="24" t="s">
         <v>50</v>
       </c>
       <c r="J15" s="4" t="s">
@@ -3193,17 +3057,17 @@
       <c r="Y15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="Z15" s="21" t="s">
-        <v>182</v>
+      <c r="Z15" s="27">
+        <v>42461</v>
       </c>
       <c r="AA15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB15" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC15" s="21" t="s">
-        <v>221</v>
+      <c r="AB15" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC15" s="27">
+        <v>36193</v>
       </c>
       <c r="AD15" s="12" t="s">
         <v>5</v>
@@ -3229,8 +3093,8 @@
       <c r="AK15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AL15" s="21" t="s">
-        <v>184</v>
+      <c r="AL15" s="27">
+        <v>42409</v>
       </c>
       <c r="AM15" s="2">
         <v>1000</v>
@@ -3268,8 +3132,8 @@
       <c r="D16" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>199</v>
+      <c r="E16" s="29">
+        <v>31162</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>2</v>
@@ -3280,7 +3144,7 @@
       <c r="H16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="24" t="s">
         <v>62</v>
       </c>
       <c r="J16" s="2" t="s">
@@ -3331,17 +3195,17 @@
       <c r="Y16" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Z16" s="21" t="s">
-        <v>182</v>
+      <c r="Z16" s="27">
+        <v>42461</v>
       </c>
       <c r="AA16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB16" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC16" s="21" t="s">
-        <v>222</v>
+      <c r="AB16" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC16" s="27">
+        <v>36193</v>
       </c>
       <c r="AD16" s="12" t="s">
         <v>5</v>
@@ -3367,8 +3231,8 @@
       <c r="AK16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AL16" s="21" t="s">
-        <v>184</v>
+      <c r="AL16" s="27">
+        <v>42409</v>
       </c>
       <c r="AM16" s="2">
         <v>1000</v>
@@ -3406,8 +3270,8 @@
       <c r="D17" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>200</v>
+      <c r="E17" s="29">
+        <v>26847</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>2</v>
@@ -3418,7 +3282,7 @@
       <c r="H17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="24" t="s">
         <v>75</v>
       </c>
       <c r="J17" s="4" t="s">
@@ -3469,17 +3333,17 @@
       <c r="Y17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Z17" s="21" t="s">
-        <v>182</v>
+      <c r="Z17" s="27">
+        <v>42461</v>
       </c>
       <c r="AA17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB17" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC17" s="21" t="s">
-        <v>223</v>
+      <c r="AB17" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC17" s="27">
+        <v>36193</v>
       </c>
       <c r="AD17" s="12" t="s">
         <v>5</v>
@@ -3505,8 +3369,8 @@
       <c r="AK17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AL17" s="21" t="s">
-        <v>184</v>
+      <c r="AL17" s="27">
+        <v>42409</v>
       </c>
       <c r="AM17" s="2">
         <v>1000</v>
@@ -3544,8 +3408,8 @@
       <c r="D18" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="21" t="s">
-        <v>201</v>
+      <c r="E18" s="29">
+        <v>34242</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>2</v>
@@ -3556,7 +3420,7 @@
       <c r="H18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="24" t="s">
         <v>90</v>
       </c>
       <c r="J18" s="4" t="s">
@@ -3607,17 +3471,17 @@
       <c r="Y18" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="Z18" s="21" t="s">
-        <v>182</v>
+      <c r="Z18" s="27">
+        <v>42461</v>
       </c>
       <c r="AA18" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AB18" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC18" s="21" t="s">
-        <v>224</v>
+      <c r="AB18" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC18" s="27">
+        <v>36193</v>
       </c>
       <c r="AD18" s="12" t="s">
         <v>5</v>
@@ -3643,8 +3507,8 @@
       <c r="AK18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AL18" s="21" t="s">
-        <v>184</v>
+      <c r="AL18" s="27">
+        <v>42409</v>
       </c>
       <c r="AM18" s="2">
         <v>1000</v>
@@ -3682,8 +3546,8 @@
       <c r="D19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>202</v>
+      <c r="E19" s="28">
+        <v>26006</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>2</v>
@@ -3694,7 +3558,7 @@
       <c r="H19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="25" t="s">
         <v>101</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -3745,17 +3609,17 @@
       <c r="Y19" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="Z19" s="21" t="s">
-        <v>182</v>
+      <c r="Z19" s="27">
+        <v>42461</v>
       </c>
       <c r="AA19" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AB19" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC19" s="21" t="s">
-        <v>225</v>
+      <c r="AB19" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC19" s="27">
+        <v>36193</v>
       </c>
       <c r="AD19" s="12" t="s">
         <v>5</v>
@@ -3781,8 +3645,8 @@
       <c r="AK19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="AL19" s="21" t="s">
-        <v>184</v>
+      <c r="AL19" s="27">
+        <v>42409</v>
       </c>
       <c r="AM19" s="2">
         <v>1000</v>
@@ -3820,8 +3684,8 @@
       <c r="D20" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="21" t="s">
-        <v>203</v>
+      <c r="E20" s="28">
+        <v>34343</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>2</v>
@@ -3832,7 +3696,7 @@
       <c r="H20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I20" s="24" t="s">
+      <c r="I20" s="23" t="s">
         <v>115</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -3883,17 +3747,17 @@
       <c r="Y20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="Z20" s="21" t="s">
-        <v>182</v>
+      <c r="Z20" s="27">
+        <v>42461</v>
       </c>
       <c r="AA20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AB20" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC20" s="21" t="s">
-        <v>226</v>
+      <c r="AB20" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC20" s="27">
+        <v>36193</v>
       </c>
       <c r="AD20" s="12" t="s">
         <v>5</v>
@@ -3919,8 +3783,8 @@
       <c r="AK20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AL20" s="21" t="s">
-        <v>184</v>
+      <c r="AL20" s="27">
+        <v>42409</v>
       </c>
       <c r="AM20" s="2">
         <v>1000</v>
@@ -3946,7 +3810,7 @@
       <c r="AT20" s="1"/>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>2983884244.11515</v>
       </c>
       <c r="B21" s="4">
@@ -3958,8 +3822,8 @@
       <c r="D21" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="21" t="s">
-        <v>204</v>
+      <c r="E21" s="30">
+        <v>36697</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>24</v>
@@ -3970,7 +3834,7 @@
       <c r="H21" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="I21" s="27" t="s">
+      <c r="I21" s="26" t="s">
         <v>122</v>
       </c>
       <c r="J21" s="10" t="s">
@@ -4021,17 +3885,17 @@
       <c r="Y21" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="Z21" s="21" t="s">
-        <v>182</v>
+      <c r="Z21" s="27">
+        <v>42461</v>
       </c>
       <c r="AA21" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AB21" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC21" s="21" t="s">
-        <v>227</v>
+      <c r="AB21" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC21" s="27">
+        <v>36193</v>
       </c>
       <c r="AD21" s="12" t="s">
         <v>5</v>
@@ -4057,8 +3921,8 @@
       <c r="AK21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AL21" s="21" t="s">
-        <v>184</v>
+      <c r="AL21" s="27">
+        <v>42409</v>
       </c>
       <c r="AM21" s="2">
         <v>1000</v>
@@ -4095,8 +3959,8 @@
       <c r="D22" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>205</v>
+      <c r="E22" s="27">
+        <v>29587</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>2</v>
@@ -4107,7 +3971,7 @@
       <c r="H22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I22" s="24" t="s">
+      <c r="I22" s="23" t="s">
         <v>6</v>
       </c>
       <c r="J22" s="4" t="s">
@@ -4158,17 +4022,17 @@
       <c r="Y22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z22" s="21" t="s">
-        <v>182</v>
+      <c r="Z22" s="27">
+        <v>42461</v>
       </c>
       <c r="AA22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB22" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC22" s="21" t="s">
-        <v>228</v>
+      <c r="AB22" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC22" s="27">
+        <v>36193</v>
       </c>
       <c r="AD22" s="12" t="s">
         <v>5</v>
@@ -4194,8 +4058,8 @@
       <c r="AK22" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AL22" s="21" t="s">
-        <v>184</v>
+      <c r="AL22" s="27">
+        <v>42409</v>
       </c>
       <c r="AM22" s="2">
         <v>1000</v>
@@ -4232,8 +4096,8 @@
       <c r="D23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>206</v>
+      <c r="E23" s="27">
+        <v>29587</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>24</v>
@@ -4244,7 +4108,7 @@
       <c r="H23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="24" t="s">
         <v>25</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -4295,17 +4159,17 @@
       <c r="Y23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="Z23" s="21" t="s">
-        <v>182</v>
+      <c r="Z23" s="27">
+        <v>42461</v>
       </c>
       <c r="AA23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AB23" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC23" s="21" t="s">
-        <v>229</v>
+      <c r="AB23" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC23" s="27">
+        <v>36193</v>
       </c>
       <c r="AD23" s="12" t="s">
         <v>5</v>
@@ -4331,8 +4195,8 @@
       <c r="AK23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AL23" s="21" t="s">
-        <v>184</v>
+      <c r="AL23" s="27">
+        <v>42409</v>
       </c>
       <c r="AM23" s="2">
         <v>1000</v>
@@ -4369,8 +4233,8 @@
       <c r="D24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>207</v>
+      <c r="E24" s="27">
+        <v>29587</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>24</v>
@@ -4381,7 +4245,7 @@
       <c r="H24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="24" t="s">
         <v>40</v>
       </c>
       <c r="J24" s="4" t="s">
@@ -4432,17 +4296,17 @@
       <c r="Y24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Z24" s="21" t="s">
-        <v>182</v>
+      <c r="Z24" s="27">
+        <v>42461</v>
       </c>
       <c r="AA24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB24" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AC24" s="21" t="s">
-        <v>230</v>
+      <c r="AB24" s="27">
+        <v>42376</v>
+      </c>
+      <c r="AC24" s="27">
+        <v>36193</v>
       </c>
       <c r="AD24" s="12" t="s">
         <v>5</v>
@@ -4468,8 +4332,8 @@
       <c r="AK24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AL24" s="21" t="s">
-        <v>184</v>
+      <c r="AL24" s="27">
+        <v>42409</v>
       </c>
       <c r="AM24" s="2">
         <v>1000</v>
@@ -4494,73 +4358,73 @@
       </c>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="E29" s="22"/>
+      <c r="E29" s="21"/>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="E30" s="22"/>
+      <c r="E30" s="21"/>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="E31" s="22"/>
+      <c r="E31" s="21"/>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="E32" s="22"/>
+      <c r="E32" s="21"/>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="22"/>
+      <c r="E33" s="21"/>
     </row>
     <row r="34" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E34" s="22"/>
+      <c r="E34" s="21"/>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E35" s="22"/>
+      <c r="E35" s="21"/>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E36" s="22"/>
+      <c r="E36" s="21"/>
     </row>
     <row r="37" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="22"/>
+      <c r="E37" s="21"/>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E38" s="22"/>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E39" s="22"/>
+      <c r="E39" s="21"/>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E40" s="22"/>
+      <c r="E40" s="21"/>
     </row>
     <row r="41" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E41" s="22"/>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E42" s="22"/>
+      <c r="E42" s="21"/>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E43" s="22"/>
+      <c r="E43" s="21"/>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E44" s="22"/>
+      <c r="E44" s="21"/>
     </row>
     <row r="45" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E45" s="22"/>
+      <c r="E45" s="21"/>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E46" s="22"/>
+      <c r="E46" s="21"/>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E47" s="22"/>
+      <c r="E47" s="21"/>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E48" s="22"/>
+      <c r="E48" s="21"/>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="22"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="22"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E51" s="22"/>
+      <c r="E51" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/Excel/MASTER_DATA.xlsx
+++ b/public/Excel/MASTER_DATA.xlsx
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC2" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AL24"/>
+    <sheetView tabSelected="1" topLeftCell="AD2" workbookViewId="0">
+      <selection activeCell="AM3" sqref="AM3:AM24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1312,7 @@
         <v>42409</v>
       </c>
       <c r="AM2" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN2" s="2" t="s">
         <v>21</v>
@@ -1321,13 +1321,13 @@
         <v>5</v>
       </c>
       <c r="AP2" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ2" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="12">
         <v>1</v>
@@ -1449,7 +1449,7 @@
         <v>42409</v>
       </c>
       <c r="AM3" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="2" t="s">
         <v>38</v>
@@ -1458,13 +1458,13 @@
         <v>5</v>
       </c>
       <c r="AP3" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR3" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="12">
         <v>1</v>
@@ -1586,7 +1586,7 @@
         <v>42409</v>
       </c>
       <c r="AM4" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN4" s="2" t="s">
         <v>38</v>
@@ -1595,13 +1595,13 @@
         <v>5</v>
       </c>
       <c r="AP4" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="12">
         <v>1</v>
@@ -1723,7 +1723,7 @@
         <v>42409</v>
       </c>
       <c r="AM5" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="2" t="s">
         <v>21</v>
@@ -1732,13 +1732,13 @@
         <v>5</v>
       </c>
       <c r="AP5" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="12">
         <v>1</v>
@@ -1860,7 +1860,7 @@
         <v>42409</v>
       </c>
       <c r="AM6" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN6" s="2" t="s">
         <v>71</v>
@@ -1869,13 +1869,13 @@
         <v>5</v>
       </c>
       <c r="AP6" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ6" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR6" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS6" s="12">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>42409</v>
       </c>
       <c r="AM7" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN7" s="2" t="s">
         <v>87</v>
@@ -2006,13 +2006,13 @@
         <v>5</v>
       </c>
       <c r="AP7" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ7" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR7" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS7" s="12">
         <v>1</v>
@@ -2134,7 +2134,7 @@
         <v>42409</v>
       </c>
       <c r="AM8" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN8" s="2" t="s">
         <v>87</v>
@@ -2143,13 +2143,13 @@
         <v>5</v>
       </c>
       <c r="AP8" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ8" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR8" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS8" s="12">
         <v>1</v>
@@ -2271,7 +2271,7 @@
         <v>42409</v>
       </c>
       <c r="AM9" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN9" s="2" t="s">
         <v>87</v>
@@ -2280,13 +2280,13 @@
         <v>5</v>
       </c>
       <c r="AP9" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ9" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR9" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS9" s="12">
         <v>1</v>
@@ -2408,7 +2408,7 @@
         <v>42409</v>
       </c>
       <c r="AM10" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN10" s="2" t="s">
         <v>21</v>
@@ -2417,13 +2417,13 @@
         <v>5</v>
       </c>
       <c r="AP10" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ10" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR10" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS10" s="12">
         <v>1</v>
@@ -2545,7 +2545,7 @@
         <v>42409</v>
       </c>
       <c r="AM11" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN11" s="10" t="s">
         <v>131</v>
@@ -2554,13 +2554,13 @@
         <v>132</v>
       </c>
       <c r="AP11" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR11" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS11" s="12">
         <v>1</v>
@@ -2683,7 +2683,7 @@
         <v>42409</v>
       </c>
       <c r="AM12" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN12" s="2" t="s">
         <v>21</v>
@@ -2692,13 +2692,13 @@
         <v>5</v>
       </c>
       <c r="AP12" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ12" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR12" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS12" s="12">
         <v>1</v>
@@ -2821,7 +2821,7 @@
         <v>42409</v>
       </c>
       <c r="AM13" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN13" s="2" t="s">
         <v>38</v>
@@ -2830,13 +2830,13 @@
         <v>5</v>
       </c>
       <c r="AP13" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ13" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR13" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS13" s="12">
         <v>1</v>
@@ -2959,7 +2959,7 @@
         <v>42409</v>
       </c>
       <c r="AM14" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN14" s="2" t="s">
         <v>38</v>
@@ -2968,13 +2968,13 @@
         <v>5</v>
       </c>
       <c r="AP14" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ14" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR14" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS14" s="12">
         <v>1</v>
@@ -3097,7 +3097,7 @@
         <v>42409</v>
       </c>
       <c r="AM15" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN15" s="2" t="s">
         <v>21</v>
@@ -3106,13 +3106,13 @@
         <v>5</v>
       </c>
       <c r="AP15" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR15" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS15" s="12">
         <v>1</v>
@@ -3235,7 +3235,7 @@
         <v>42409</v>
       </c>
       <c r="AM16" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN16" s="2" t="s">
         <v>180</v>
@@ -3244,13 +3244,13 @@
         <v>5</v>
       </c>
       <c r="AP16" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="12">
         <v>1</v>
@@ -3373,7 +3373,7 @@
         <v>42409</v>
       </c>
       <c r="AM17" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="2" t="s">
         <v>87</v>
@@ -3382,13 +3382,13 @@
         <v>5</v>
       </c>
       <c r="AP17" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ17" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR17" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS17" s="12">
         <v>1</v>
@@ -3511,7 +3511,7 @@
         <v>42409</v>
       </c>
       <c r="AM18" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN18" s="2" t="s">
         <v>87</v>
@@ -3520,13 +3520,13 @@
         <v>5</v>
       </c>
       <c r="AP18" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR18" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="12">
         <v>1</v>
@@ -3649,7 +3649,7 @@
         <v>42409</v>
       </c>
       <c r="AM19" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN19" s="2" t="s">
         <v>87</v>
@@ -3658,13 +3658,13 @@
         <v>5</v>
       </c>
       <c r="AP19" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS19" s="12">
         <v>1</v>
@@ -3787,7 +3787,7 @@
         <v>42409</v>
       </c>
       <c r="AM20" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN20" s="2" t="s">
         <v>21</v>
@@ -3796,13 +3796,13 @@
         <v>5</v>
       </c>
       <c r="AP20" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR20" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS20" s="12">
         <v>1</v>
@@ -3925,7 +3925,7 @@
         <v>42409</v>
       </c>
       <c r="AM21" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN21" s="10" t="s">
         <v>181</v>
@@ -3934,13 +3934,13 @@
         <v>132</v>
       </c>
       <c r="AP21" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS21" s="12">
         <v>1</v>
@@ -4062,7 +4062,7 @@
         <v>42409</v>
       </c>
       <c r="AM22" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN22" s="2" t="s">
         <v>21</v>
@@ -4071,13 +4071,13 @@
         <v>5</v>
       </c>
       <c r="AP22" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS22" s="12">
         <v>1</v>
@@ -4199,7 +4199,7 @@
         <v>42409</v>
       </c>
       <c r="AM23" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN23" s="2" t="s">
         <v>38</v>
@@ -4208,13 +4208,13 @@
         <v>5</v>
       </c>
       <c r="AP23" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="12">
         <v>1</v>
@@ -4336,7 +4336,7 @@
         <v>42409</v>
       </c>
       <c r="AM24" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="2" t="s">
         <v>38</v>
@@ -4345,13 +4345,13 @@
         <v>5</v>
       </c>
       <c r="AP24" s="2">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="2">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="2">
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="AS24" s="12">
         <v>1</v>

--- a/public/Excel/MASTER_DATA.xlsx
+++ b/public/Excel/MASTER_DATA.xlsx
@@ -581,7 +581,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmm\-yy;@"/>
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD2" workbookViewId="0">
-      <selection activeCell="AM3" sqref="AM3:AM24"/>
+    <sheetView tabSelected="1" topLeftCell="U2" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2:Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/Excel/MASTER_DATA.xlsx
+++ b/public/Excel/MASTER_DATA.xlsx
@@ -1039,8 +1039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U2" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2:Z24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1209,8 +1209,8 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28">
-        <v>30036</v>
+      <c r="E2" s="29">
+        <v>33826</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
